--- a/skills/Skills (From Indeed).xlsx
+++ b/skills/Skills (From Indeed).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kongbinxuan/Desktop/skills-onthology-project/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D862F2-5168-A547-A75C-618C922AC1DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F165A3C-67C0-4E42-BDFE-3B9EB105DC37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13720" yWindow="460" windowWidth="15080" windowHeight="16200" activeTab="1" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="64">
   <si>
     <t>Skill</t>
   </si>
@@ -200,6 +200,33 @@
   </si>
   <si>
     <t>Statistical Data Analysis</t>
+  </si>
+  <si>
+    <t>JMP</t>
+  </si>
+  <si>
+    <t>ISO 13485</t>
+  </si>
+  <si>
+    <t>Molecular Biology</t>
+  </si>
+  <si>
+    <t>Biostatistics</t>
+  </si>
+  <si>
+    <t>Polymerase chain reaction (PCR)</t>
+  </si>
+  <si>
+    <t>Quantitative Polymerase Chain Reaction (qPCR)</t>
+  </si>
+  <si>
+    <t>Real-time Polymerase Chain Reaction (real-time PCR)</t>
+  </si>
+  <si>
+    <t>PowerBI</t>
+  </si>
+  <si>
+    <t>Microsoft PowerBI</t>
   </si>
 </sst>
 </file>
@@ -417,8 +444,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D3EADB99-0D20-D14B-AB4C-61D190B81338}" name="Table9" displayName="Table9" ref="A1:B45" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="A1:B45" xr:uid="{DDBDA75A-881A-0749-AA2F-B60C92F90350}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D3EADB99-0D20-D14B-AB4C-61D190B81338}" name="Table9" displayName="Table9" ref="A1:B54" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:B54" xr:uid="{DDBDA75A-881A-0749-AA2F-B60C92F90350}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A1:A2"/>
   </sortState>
@@ -798,10 +825,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B3BC42-11F9-D04E-AF40-560B87CFC520}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1169,6 +1196,78 @@
         <v>3</v>
       </c>
     </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/skills/Skills (From Indeed).xlsx
+++ b/skills/Skills (From Indeed).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kongbinxuan/Desktop/skills-onthology-project/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F165A3C-67C0-4E42-BDFE-3B9EB105DC37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B34B1EC-FCD5-FC46-B3DE-A574E22C7A72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13720" yWindow="460" windowWidth="15080" windowHeight="16200" activeTab="1" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t>Skill</t>
   </si>
@@ -58,7 +58,22 @@
     <t>Natural Science</t>
   </si>
   <si>
-    <t>Generalized Linear Model</t>
+    <t>Maven</t>
+  </si>
+  <si>
+    <t>Gradle</t>
+  </si>
+  <si>
+    <t>Google App Engine</t>
+  </si>
+  <si>
+    <t>Jelastic</t>
+  </si>
+  <si>
+    <t>Node.js</t>
+  </si>
+  <si>
+    <t>Android</t>
   </si>
   <si>
     <t>Information Technology (IT)</t>
@@ -73,160 +88,97 @@
     <t>Domain</t>
   </si>
   <si>
-    <t>OpticStudio</t>
-  </si>
-  <si>
-    <t>CODE V</t>
-  </si>
-  <si>
-    <t>Data Definition Language (DDL)</t>
-  </si>
-  <si>
-    <t>Thompson Sampling</t>
-  </si>
-  <si>
-    <t>Pattern Analysis</t>
-  </si>
-  <si>
-    <t>Applied Statistics</t>
-  </si>
-  <si>
-    <t>Databricks</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>Power BI</t>
-  </si>
-  <si>
-    <t>Shiny</t>
-  </si>
-  <si>
-    <t>Certified Information Security Manager (CISM)</t>
-  </si>
-  <si>
-    <t>Certified Information Systems Auditor (CISA)</t>
-  </si>
-  <si>
-    <t>Azure Machine Learning Studio</t>
-  </si>
-  <si>
-    <t>PSPP</t>
-  </si>
-  <si>
-    <t>Metrology</t>
-  </si>
-  <si>
-    <t>Interferometer</t>
-  </si>
-  <si>
-    <t>Motion Control</t>
-  </si>
-  <si>
-    <t>Motion Control System</t>
-  </si>
-  <si>
-    <t>Precision Engineering</t>
-  </si>
-  <si>
-    <t>Optical System</t>
-  </si>
-  <si>
-    <t>Control System</t>
-  </si>
-  <si>
-    <t>Control System Design</t>
-  </si>
-  <si>
-    <t>LabVIEW</t>
-  </si>
-  <si>
-    <t>Contract Research Organization (CRO)</t>
-  </si>
-  <si>
-    <t>Immunogenicity</t>
-  </si>
-  <si>
-    <t>Biomedicine</t>
-  </si>
-  <si>
-    <t>Tumor Immunity</t>
-  </si>
-  <si>
-    <t>Biodistribution</t>
-  </si>
-  <si>
-    <t>Redshift</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>Amazon S3</t>
-  </si>
-  <si>
-    <t>Amazon Simple Storage System</t>
-  </si>
-  <si>
-    <t>Adobe SiteCatalyst</t>
-  </si>
-  <si>
-    <t>SiteCatalyst</t>
-  </si>
-  <si>
-    <t>Coremetrics</t>
-  </si>
-  <si>
-    <t>Adwords</t>
-  </si>
-  <si>
-    <t>Google Adwords</t>
-  </si>
-  <si>
-    <t>Crimson Hexagon</t>
-  </si>
-  <si>
-    <t>Brandwatch</t>
-  </si>
-  <si>
-    <t>Periscope</t>
-  </si>
-  <si>
-    <t>BusinessObjects</t>
-  </si>
-  <si>
-    <t>SAP BusinessObjects</t>
-  </si>
-  <si>
-    <t>Statistical Data Analysis</t>
-  </si>
-  <si>
-    <t>JMP</t>
-  </si>
-  <si>
-    <t>ISO 13485</t>
-  </si>
-  <si>
-    <t>Molecular Biology</t>
-  </si>
-  <si>
-    <t>Biostatistics</t>
-  </si>
-  <si>
-    <t>Polymerase chain reaction (PCR)</t>
-  </si>
-  <si>
-    <t>Quantitative Polymerase Chain Reaction (qPCR)</t>
-  </si>
-  <si>
-    <t>Real-time Polymerase Chain Reaction (real-time PCR)</t>
-  </si>
-  <si>
-    <t>PowerBI</t>
-  </si>
-  <si>
-    <t>Microsoft PowerBI</t>
+    <t>IntelliJ IDEA</t>
+  </si>
+  <si>
+    <t>Jruby</t>
+  </si>
+  <si>
+    <t>TypeScript</t>
+  </si>
+  <si>
+    <t>JavaFX</t>
+  </si>
+  <si>
+    <t>JUnit</t>
+  </si>
+  <si>
+    <t>sbt</t>
+  </si>
+  <si>
+    <t>TestNG</t>
+  </si>
+  <si>
+    <t>Django</t>
+  </si>
+  <si>
+    <t>EJB</t>
+  </si>
+  <si>
+    <t>FreeMarker</t>
+  </si>
+  <si>
+    <t>Geronimo</t>
+  </si>
+  <si>
+    <t>GlassFish</t>
+  </si>
+  <si>
+    <t>Google Web Toolkit</t>
+  </si>
+  <si>
+    <t>Grails</t>
+  </si>
+  <si>
+    <t>Hibernate ORM</t>
+  </si>
+  <si>
+    <t>JBoss Seam</t>
+  </si>
+  <si>
+    <t>JBoss</t>
+  </si>
+  <si>
+    <t>Jetty</t>
+  </si>
+  <si>
+    <t>OSGi</t>
+  </si>
+  <si>
+    <t>Play</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Struts 2</t>
+  </si>
+  <si>
+    <t>Tapestry</t>
+  </si>
+  <si>
+    <t>Velocity</t>
+  </si>
+  <si>
+    <t>Weblogic</t>
+  </si>
+  <si>
+    <t>WebSphere</t>
+  </si>
+  <si>
+    <t>Amazon EC2</t>
+  </si>
+  <si>
+    <t>Amazon EMR</t>
+  </si>
+  <si>
+    <t>Athena Cloud</t>
+  </si>
+  <si>
+    <t>DynamoDB</t>
+  </si>
+  <si>
+    <t>Data Gathering</t>
   </si>
 </sst>
 </file>
@@ -444,8 +396,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D3EADB99-0D20-D14B-AB4C-61D190B81338}" name="Table9" displayName="Table9" ref="A1:B54" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="A1:B54" xr:uid="{DDBDA75A-881A-0749-AA2F-B60C92F90350}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D3EADB99-0D20-D14B-AB4C-61D190B81338}" name="Table9" displayName="Table9" ref="A1:B57" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:B57" xr:uid="{DDBDA75A-881A-0749-AA2F-B60C92F90350}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
     <sortCondition ref="A1:A2"/>
   </sortState>
@@ -777,7 +729,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -797,12 +749,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -825,10 +777,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B3BC42-11F9-D04E-AF40-560B87CFC520}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -841,60 +793,60 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
+      <c r="A6" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
+      <c r="A7" t="s">
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
+      <c r="A8" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>2</v>
@@ -902,186 +854,186 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
+      <c r="A11" t="s">
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
+      <c r="A12" t="s">
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
+      <c r="A13" t="s">
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>24</v>
+      <c r="A14" t="s">
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
+      <c r="A15" t="s">
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
+      <c r="A16" t="s">
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
+      <c r="A17" t="s">
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="A18" t="s">
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>29</v>
+      <c r="A19" t="s">
+        <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>30</v>
+      <c r="A20" t="s">
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>31</v>
+      <c r="A21" t="s">
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
+      <c r="A22" t="s">
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>33</v>
+      <c r="A23" t="s">
+        <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>34</v>
+      <c r="A24" t="s">
+        <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1089,7 +1041,7 @@
         <v>41</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1097,7 +1049,7 @@
         <v>42</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1105,23 +1057,23 @@
         <v>43</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1129,7 +1081,7 @@
         <v>46</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1137,136 +1089,76 @@
         <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/skills/Skills (From Indeed).xlsx
+++ b/skills/Skills (From Indeed).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kongbinxuan/Desktop/skills-onthology-project/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B34B1EC-FCD5-FC46-B3DE-A574E22C7A72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518BE00B-5660-264F-BD9F-CBF87FDEF6F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13720" yWindow="460" windowWidth="15080" windowHeight="16200" activeTab="1" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
+    <workbookView xWindow="16700" yWindow="460" windowWidth="12100" windowHeight="16200" activeTab="1" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Domains" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="96">
   <si>
     <t>Skill</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Arts and Humanities</t>
   </si>
   <si>
+    <t>Genetic Programming</t>
+  </si>
+  <si>
     <t>Domain</t>
   </si>
   <si>
@@ -179,16 +182,164 @@
   </si>
   <si>
     <t>Data Gathering</t>
+  </si>
+  <si>
+    <t>Scorecard</t>
+  </si>
+  <si>
+    <t>Balanced Scorecard</t>
+  </si>
+  <si>
+    <t>Fuzzy Logic</t>
+  </si>
+  <si>
+    <t>Evolutionary Algorithm</t>
+  </si>
+  <si>
+    <t>Evolutionary Computation</t>
+  </si>
+  <si>
+    <t>Fitness Approximation</t>
+  </si>
+  <si>
+    <t>Cartesian Genetic Programming</t>
+  </si>
+  <si>
+    <t>Lienar Genetic Programming</t>
+  </si>
+  <si>
+    <t>Multi Expression Programming</t>
+  </si>
+  <si>
+    <t>Apache Druid</t>
+  </si>
+  <si>
+    <t>Behavioural Segmentation</t>
+  </si>
+  <si>
+    <t>Churn Prediction</t>
+  </si>
+  <si>
+    <t>Next Best Offer</t>
+  </si>
+  <si>
+    <t>Market Basket Analysis</t>
+  </si>
+  <si>
+    <t>Lifetime Value Model</t>
+  </si>
+  <si>
+    <t>Network Optimization</t>
+  </si>
+  <si>
+    <t>Campaign Optimization</t>
+  </si>
+  <si>
+    <t>Recommendations AI</t>
+  </si>
+  <si>
+    <t>Google Worksapce</t>
+  </si>
+  <si>
+    <t>Recommendation System</t>
+  </si>
+  <si>
+    <t>Recommendation Engine</t>
+  </si>
+  <si>
+    <t>Pricing System</t>
+  </si>
+  <si>
+    <t>Statistical Distribution</t>
+  </si>
+  <si>
+    <t>Statistical Testing</t>
+  </si>
+  <si>
+    <t>Code Version</t>
+  </si>
+  <si>
+    <t>Code Review</t>
+  </si>
+  <si>
+    <t>Cognitive Bias</t>
+  </si>
+  <si>
+    <t>Cross-Cultural Reasoning</t>
+  </si>
+  <si>
+    <t>Statstical Interpretation</t>
+  </si>
+  <si>
+    <t>Human Factor Impact</t>
+  </si>
+  <si>
+    <t>Algorithmic Bias</t>
+  </si>
+  <si>
+    <t>Viral Marketing</t>
+  </si>
+  <si>
+    <t>Bayesian Networks Inference</t>
+  </si>
+  <si>
+    <t>Hierarchical Mixed Models</t>
+  </si>
+  <si>
+    <t>Multi-level modelling</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Predictive Model</t>
+  </si>
+  <si>
+    <t>MicroStrategy</t>
+  </si>
+  <si>
+    <t>MLOps</t>
+  </si>
+  <si>
+    <t>Apache Zookeeper</t>
+  </si>
+  <si>
+    <t>Apache Solr</t>
+  </si>
+  <si>
+    <t>SQL Server Integration Services (SSIS)</t>
+  </si>
+  <si>
+    <t>Apache Sqoop</t>
+  </si>
+  <si>
+    <t>Apache Oozie</t>
+  </si>
+  <si>
+    <t>Design Sprint</t>
+  </si>
+  <si>
+    <t>Oral Communication</t>
+  </si>
+  <si>
+    <t>Written Communication</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -216,7 +367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -246,15 +397,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF4472C4"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF4472C4"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF4472C4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,10 +564,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D3EADB99-0D20-D14B-AB4C-61D190B81338}" name="Table9" displayName="Table9" ref="A1:B57" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="A1:B57" xr:uid="{DDBDA75A-881A-0749-AA2F-B60C92F90350}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
-    <sortCondition ref="A1:A2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D3EADB99-0D20-D14B-AB4C-61D190B81338}" name="Table9" displayName="Table9" ref="A1:B86" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:B86" xr:uid="{DDBDA75A-881A-0749-AA2F-B60C92F90350}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B75">
+    <sortCondition ref="A1:A75"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F17142B4-F932-704B-8A4E-0D89A6DF408F}" name="Skill" dataDxfId="1"/>
@@ -777,10 +945,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B3BC42-11F9-D04E-AF40-560B87CFC520}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -789,34 +957,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>16</v>
+      <c r="B1" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="A2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -824,341 +992,657 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
+      <c r="A9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
+      <c r="A10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>2</v>
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>2</v>
+      <c r="A12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>2</v>
+      <c r="A16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>2</v>
+      <c r="A17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>2</v>
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="A23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="A24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>2</v>
+      <c r="A27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="B69" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="B72" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="B74" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="B75" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/skills/Skills (From Indeed).xlsx
+++ b/skills/Skills (From Indeed).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kongbinxuan/Desktop/skills-onthology-project/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518BE00B-5660-264F-BD9F-CBF87FDEF6F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F566630-B5FC-7841-9209-2E8822645A06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16700" yWindow="460" windowWidth="12100" windowHeight="16200" activeTab="1" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
+    <workbookView xWindow="15100" yWindow="460" windowWidth="13700" windowHeight="16200" activeTab="1" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Domains" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="102">
   <si>
     <t>Skill</t>
   </si>
@@ -323,6 +323,24 @@
   </si>
   <si>
     <t>Written Communication</t>
+  </si>
+  <si>
+    <t>Spring Framework</t>
+  </si>
+  <si>
+    <t>Spring Boot</t>
+  </si>
+  <si>
+    <t>Functional Magnetic Resonance Imaging (fMRI)</t>
+  </si>
+  <si>
+    <t>Electroencephalogram (EEG)</t>
+  </si>
+  <si>
+    <t>Dual Generative Adversarial Network (DualGAN)</t>
+  </si>
+  <si>
+    <t>SonarQube</t>
   </si>
 </sst>
 </file>
@@ -564,8 +582,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D3EADB99-0D20-D14B-AB4C-61D190B81338}" name="Table9" displayName="Table9" ref="A1:B86" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="A1:B86" xr:uid="{DDBDA75A-881A-0749-AA2F-B60C92F90350}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D3EADB99-0D20-D14B-AB4C-61D190B81338}" name="Table9" displayName="Table9" ref="A1:B93" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:B93" xr:uid="{DDBDA75A-881A-0749-AA2F-B60C92F90350}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B75">
     <sortCondition ref="A1:A75"/>
   </sortState>
@@ -945,10 +963,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B3BC42-11F9-D04E-AF40-560B87CFC520}">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1644,6 +1662,62 @@
         <v>1</v>
       </c>
     </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/skills/Skills (From Indeed).xlsx
+++ b/skills/Skills (From Indeed).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kongbinxuan/Desktop/skills-onthology-project/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AA318A-2185-454D-8733-BB92C9EDF010}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D056DE4-10AB-FF46-899C-04C1389F87ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15100" yWindow="460" windowWidth="13700" windowHeight="16200" activeTab="1" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14740" windowHeight="16200" activeTab="1" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Domains" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
   <si>
     <t>Skill</t>
   </si>
@@ -68,6 +68,138 @@
   </si>
   <si>
     <t>Domain</t>
+  </si>
+  <si>
+    <t>Autodesk</t>
+  </si>
+  <si>
+    <t>SolidWorks</t>
+  </si>
+  <si>
+    <t>ANSYS</t>
+  </si>
+  <si>
+    <t>Research Methodology</t>
+  </si>
+  <si>
+    <t>Biotechnology Management</t>
+  </si>
+  <si>
+    <t>Microbial Genetics</t>
+  </si>
+  <si>
+    <t>Cell Biology</t>
+  </si>
+  <si>
+    <t>Gene Expression</t>
+  </si>
+  <si>
+    <t>Maple</t>
+  </si>
+  <si>
+    <t>SigmaPlot</t>
+  </si>
+  <si>
+    <t>Microsoft Access</t>
+  </si>
+  <si>
+    <t>Video Maker</t>
+  </si>
+  <si>
+    <t>Biopython</t>
+  </si>
+  <si>
+    <t>BioPerl</t>
+  </si>
+  <si>
+    <t>Aspen HYSYS</t>
+  </si>
+  <si>
+    <t>Microsoft Publisher</t>
+  </si>
+  <si>
+    <t>General Algebraic Modeling System (GAMS)</t>
+  </si>
+  <si>
+    <t>Aspen Plus</t>
+  </si>
+  <si>
+    <t>Google Colaboratory</t>
+  </si>
+  <si>
+    <t>Google BigQuery</t>
+  </si>
+  <si>
+    <t>LeNet</t>
+  </si>
+  <si>
+    <t>U-Net</t>
+  </si>
+  <si>
+    <t>MobileNet</t>
+  </si>
+  <si>
+    <t>Minitab</t>
+  </si>
+  <si>
+    <t>Statistical Process Control (SPC)</t>
+  </si>
+  <si>
+    <t>Jbuilder</t>
+  </si>
+  <si>
+    <t>WinFACT</t>
+  </si>
+  <si>
+    <t>Statgraphics</t>
+  </si>
+  <si>
+    <t>Pharmacogenomics</t>
+  </si>
+  <si>
+    <t>Research Management</t>
+  </si>
+  <si>
+    <t>Active Server Pages (ASP)</t>
+  </si>
+  <si>
+    <t>ASP.NET</t>
+  </si>
+  <si>
+    <t>Apache Flex</t>
+  </si>
+  <si>
+    <t>FLEX</t>
+  </si>
+  <si>
+    <t>Autodesk 3ds Max</t>
+  </si>
+  <si>
+    <t>Adobe Director</t>
+  </si>
+  <si>
+    <t>Lingo</t>
+  </si>
+  <si>
+    <t>Adobe Dreamweaver</t>
+  </si>
+  <si>
+    <t>Computer System</t>
+  </si>
+  <si>
+    <t>Network Address Translation (NAT)</t>
+  </si>
+  <si>
+    <t>Open Shortest Path First (OSPF)</t>
+  </si>
+  <si>
+    <t>ns-1</t>
+  </si>
+  <si>
+    <t>ns-2</t>
+  </si>
+  <si>
+    <t>ns-3</t>
   </si>
 </sst>
 </file>
@@ -692,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B3BC42-11F9-D04E-AF40-560B87CFC520}">
   <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -710,144 +842,364 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" s="1"/>
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">

--- a/skills/Skills (From Indeed).xlsx
+++ b/skills/Skills (From Indeed).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kongbinxuan/Desktop/skills-onthology-project/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D056DE4-10AB-FF46-899C-04C1389F87ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7959522-5EBD-BD48-B76A-05E0BE491903}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="14740" windowHeight="16200" activeTab="1" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
   <si>
     <t>Skill</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>LeNet</t>
-  </si>
-  <si>
-    <t>U-Net</t>
   </si>
   <si>
     <t>MobileNet</t>
@@ -441,10 +438,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D3EADB99-0D20-D14B-AB4C-61D190B81338}" name="Table9" displayName="Table9" ref="A1:B93" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="A1:B93" xr:uid="{DDBDA75A-881A-0749-AA2F-B60C92F90350}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B93">
-    <sortCondition ref="B1:B93"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D3EADB99-0D20-D14B-AB4C-61D190B81338}" name="Table9" displayName="Table9" ref="A1:B92" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:B92" xr:uid="{DDBDA75A-881A-0749-AA2F-B60C92F90350}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B92">
+    <sortCondition ref="B1:B92"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F17142B4-F932-704B-8A4E-0D89A6DF408F}" name="Skill" dataDxfId="1"/>
@@ -822,10 +819,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B3BC42-11F9-D04E-AF40-560B87CFC520}">
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1030,7 +1027,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1038,7 +1035,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1046,7 +1043,7 @@
         <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1054,7 +1051,7 @@
         <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1062,7 +1059,7 @@
         <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1070,7 +1067,7 @@
         <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1078,7 +1075,7 @@
         <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1091,23 +1088,23 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>2</v>
@@ -1141,7 +1138,7 @@
       <c r="A39" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1149,8 +1146,8 @@
       <c r="A40" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>2</v>
+      <c r="B40" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1166,7 +1163,7 @@
         <v>51</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1186,12 +1183,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
@@ -1263,10 +1255,10 @@
       <c r="B68" s="2"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B69" s="2"/>
+      <c r="B69" s="6"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B70" s="6"/>
+      <c r="B70" s="2"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
@@ -1323,19 +1315,16 @@
       <c r="B88" s="2"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" s="2"/>
+      <c r="B89" s="7"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B90" s="7"/>
+      <c r="B90" s="2"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B91" s="2"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B92" s="2"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B93" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
